--- a/MMOR/FMS管理科学高质量期刊（中文期刊）chinese.xlsx
+++ b/MMOR/FMS管理科学高质量期刊（中文期刊）chinese.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0-研究生科研\99-Big boss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Files\Tex_files\MMOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F42E8-72A0-4819-BF1E-6AC7E1C931F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2382,7 +2382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2457,7 +2457,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2479,6 +2479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,7 +2518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2550,6 +2556,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2831,24 +2840,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3"/>
-    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="92.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="18.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="92.88671875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>252</v>
       </c>
@@ -2857,14 +2866,14 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="41.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="41.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -2881,7 +2890,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2898,7 +2907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2966,14 +2975,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2983,7 +2992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3000,14 +3009,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3017,7 +3026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3034,7 +3043,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3051,7 +3060,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3068,7 +3077,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3136,7 +3145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3170,7 +3179,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3204,7 +3213,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3221,7 +3230,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3306,7 +3315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3374,7 +3383,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3391,7 +3400,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3408,7 +3417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3544,7 +3553,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3561,7 +3570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3578,7 +3587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3612,7 +3621,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -3697,7 +3706,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -3714,7 +3723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -3748,7 +3757,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -3765,7 +3774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -3850,7 +3859,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -3884,7 +3893,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -3952,7 +3961,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -3969,7 +3978,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -3986,7 +3995,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -4003,7 +4012,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -4020,7 +4029,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -4088,7 +4097,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -4173,7 +4182,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -4190,7 +4199,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -4258,7 +4267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>83</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -4309,7 +4318,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>85</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>253</v>
       </c>
@@ -4335,14 +4344,14 @@
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4350,7 +4359,7 @@
       <c r="E91" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="B2:J1136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J1136">
     <sortCondition ref="D2:D1136" customList="A+,A,B,C,D"/>
   </sortState>
   <mergeCells count="2">
